--- a/pred_ohlcv/54_21/2019-10-28 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 BZNT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>660417.2516000001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>740663.7506</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>740663.7506</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>691692.2373328018</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>629358.6948328018</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>683463.0943328019</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>694748.7107328019</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>786416.236532802</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>900166.8858907241</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>890101.0628907242</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>890101.0628907242</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>954101.0628907242</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>954101.0628907242</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>924101.0628907242</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>924126.1982907242</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>921427.7820907242</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>907812.2773907242</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>891427.7820907242</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>891437.7820907242</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>819803.7684907243</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>819803.7684907243</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>819813.7684907243</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>772142.0024907242</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>772342.0024907242</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>193895.0024907242</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>193895.0024907242</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>193905.0024907242</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>191395.5774907242</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>191395.5774907242</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1298610.688509276</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1298370.688509276</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1494302.556709276</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1913791.205409276</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1918791.205409276</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1918781.205409276</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1926388.037509276</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1926388.037509276</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2012508.037509276</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2012508.037509276</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1917850.850609276</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1950627.850609276</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1950527.850609276</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1950627.850609276</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1945390.850609276</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-660817.4410092762</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-241356.6456092762</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-131527.0292092762</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-168820.0502092762</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>566490.9171907238</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>669935.6407907238</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-20833.33380927611</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20868.33380927611</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-20868.33380927611</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-315545.192269229</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-280151.590169229</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-280143.4083692289</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-280910.628169229</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1018053.865969229</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1013205.865969229</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1013205.865969229</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-965482.439269229</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-877825.3599692289</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-679822.3345692288</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-669046.4725692288</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-719046.4725692288</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-668247.3365692289</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-669769.4274692289</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-480065.1940692288</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-483105.2788692288</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-483175.4501692288</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-483253.3592692288</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-483235.1774692287</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-484962.3568692288</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-637198.6144692288</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-661778.6870692287</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 BZNT ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>691692.2373328018</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>629358.6948328018</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>683463.0943328019</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>694748.7107328019</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>786416.236532802</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>900166.8858907241</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>890101.0628907242</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>890101.0628907242</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>954101.0628907242</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>954101.0628907242</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>924101.0628907242</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>924126.1982907242</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>921427.7820907242</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>907812.2773907242</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>891427.7820907242</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>891437.7820907242</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>819803.7684907243</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>819803.7684907243</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>819813.7684907243</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>772142.0024907242</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>772342.0024907242</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>193895.0024907242</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>193895.0024907242</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>193905.0024907242</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>191395.5774907242</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>191395.5774907242</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1298610.688509276</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1298370.688509276</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2012508.037509276</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1917850.850609276</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1950627.850609276</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1950527.850609276</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1950627.850609276</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1945390.850609276</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-660817.4410092762</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-241356.6456092762</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-131527.0292092762</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-168820.0502092762</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>566490.9171907238</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>669935.6407907238</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-20833.33380927611</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20868.33380927611</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-20868.33380927611</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-318381.2280692289</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-280161.590169229</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-280143.4083692289</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-280910.628169229</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-281100.628169229</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-308067.240669229</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-978067.4870692289</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-977855.9402692289</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1018053.865969229</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1013205.865969229</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1013205.865969229</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-965482.439269229</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-679822.3345692288</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-669046.4725692288</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-719046.4725692288</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-668247.3365692289</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-669769.4274692289</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-480065.1940692288</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-483105.2788692288</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-483175.4501692288</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-483253.3592692288</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-483235.1774692287</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-484962.3568692288</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-637198.6144692288</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-661778.6870692287</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-701624.6870692287</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-713554.6870692287</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-970762.6167692287</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1012925.312869229</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
